--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.931376</v>
+        <v>1.169591333333333</v>
       </c>
       <c r="H2">
-        <v>8.794128000000001</v>
+        <v>3.508774</v>
       </c>
       <c r="I2">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="J2">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N2">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O2">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P2">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q2">
-        <v>298.3887018322187</v>
+        <v>101.6321168829916</v>
       </c>
       <c r="R2">
-        <v>2685.498316489968</v>
+        <v>914.6890519469241</v>
       </c>
       <c r="S2">
-        <v>0.03516972237810818</v>
+        <v>0.01788844228008227</v>
       </c>
       <c r="T2">
-        <v>0.03516972237810818</v>
+        <v>0.01788844228008227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.931376</v>
+        <v>1.169591333333333</v>
       </c>
       <c r="H3">
-        <v>8.794128000000001</v>
+        <v>3.508774</v>
       </c>
       <c r="I3">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="J3">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q3">
-        <v>159.3091805705867</v>
+        <v>63.56285816483222</v>
       </c>
       <c r="R3">
-        <v>1433.78262513528</v>
+        <v>572.0657234834899</v>
       </c>
       <c r="S3">
-        <v>0.01877705026546843</v>
+        <v>0.01118780710577666</v>
       </c>
       <c r="T3">
-        <v>0.01877705026546842</v>
+        <v>0.01118780710577666</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.931376</v>
+        <v>1.169591333333333</v>
       </c>
       <c r="H4">
-        <v>8.794128000000001</v>
+        <v>3.508774</v>
       </c>
       <c r="I4">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="J4">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N4">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q4">
-        <v>358.3732701062826</v>
+        <v>71.25854067799177</v>
       </c>
       <c r="R4">
-        <v>3225.359430956544</v>
+        <v>641.326866101926</v>
       </c>
       <c r="S4">
-        <v>0.04223983126700218</v>
+        <v>0.01254233731398815</v>
       </c>
       <c r="T4">
-        <v>0.04223983126700216</v>
+        <v>0.01254233731398815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.931376</v>
+        <v>1.169591333333333</v>
       </c>
       <c r="H5">
-        <v>8.794128000000001</v>
+        <v>3.508774</v>
       </c>
       <c r="I5">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="J5">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N5">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q5">
-        <v>27.27559380970667</v>
+        <v>9.134120398874442</v>
       </c>
       <c r="R5">
-        <v>245.48034428736</v>
+        <v>82.20708358986998</v>
       </c>
       <c r="S5">
-        <v>0.003214850482257273</v>
+        <v>0.001607712114495296</v>
       </c>
       <c r="T5">
-        <v>0.003214850482257272</v>
+        <v>0.001607712114495296</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.931376</v>
+        <v>1.169591333333333</v>
       </c>
       <c r="H6">
-        <v>8.794128000000001</v>
+        <v>3.508774</v>
       </c>
       <c r="I6">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="J6">
-        <v>0.1253619302628033</v>
+        <v>0.05593990076588554</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N6">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q6">
-        <v>220.2551561398721</v>
+        <v>72.2315704918451</v>
       </c>
       <c r="R6">
-        <v>1982.296405258849</v>
+        <v>650.0841344266059</v>
       </c>
       <c r="S6">
-        <v>0.02596047586996727</v>
+        <v>0.01271360195154317</v>
       </c>
       <c r="T6">
-        <v>0.02596047586996726</v>
+        <v>0.01271360195154317</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>15.660848</v>
       </c>
       <c r="I7">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="J7">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N7">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O7">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P7">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q7">
-        <v>531.3795869598098</v>
+        <v>453.6185956755165</v>
       </c>
       <c r="R7">
-        <v>4782.416282638288</v>
+        <v>4082.567361079648</v>
       </c>
       <c r="S7">
-        <v>0.06263130083684827</v>
+        <v>0.07984218291207752</v>
       </c>
       <c r="T7">
-        <v>0.06263130083684826</v>
+        <v>0.07984218291207749</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>15.660848</v>
       </c>
       <c r="I8">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="J8">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q8">
         <v>283.7025867624978</v>
@@ -948,10 +948,10 @@
         <v>2553.32328086248</v>
       </c>
       <c r="S8">
-        <v>0.03343873663151829</v>
+        <v>0.04993497630137712</v>
       </c>
       <c r="T8">
-        <v>0.03343873663151828</v>
+        <v>0.04993497630137712</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>15.660848</v>
       </c>
       <c r="I9">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="J9">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N9">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q9">
-        <v>638.2019127305671</v>
+        <v>318.0510270139503</v>
       </c>
       <c r="R9">
-        <v>5743.817214575103</v>
+        <v>2862.459243125552</v>
       </c>
       <c r="S9">
-        <v>0.07522196368055689</v>
+        <v>0.05598070386952729</v>
       </c>
       <c r="T9">
-        <v>0.07522196368055688</v>
+        <v>0.05598070386952728</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>15.660848</v>
       </c>
       <c r="I10">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="J10">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N10">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q10">
-        <v>48.57319893041777</v>
+        <v>40.76867623291555</v>
       </c>
       <c r="R10">
-        <v>437.15879037376</v>
+        <v>366.91808609624</v>
       </c>
       <c r="S10">
-        <v>0.005725102562227641</v>
+        <v>0.007175764256366879</v>
       </c>
       <c r="T10">
-        <v>0.00572510256222764</v>
+        <v>0.007175764256366878</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>15.660848</v>
       </c>
       <c r="I11">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="J11">
-        <v>0.2232483010063491</v>
+        <v>0.2496787433529823</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N11">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q11">
-        <v>392.2370155998188</v>
+        <v>322.3939889756569</v>
       </c>
       <c r="R11">
-        <v>3530.133140398369</v>
+        <v>2901.545900780912</v>
       </c>
       <c r="S11">
-        <v>0.04623119729519802</v>
+        <v>0.05674511601363352</v>
       </c>
       <c r="T11">
-        <v>0.04623119729519801</v>
+        <v>0.0567451160136335</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.882553333333334</v>
+        <v>4.885583666666666</v>
       </c>
       <c r="H12">
-        <v>20.64766</v>
+        <v>14.656751</v>
       </c>
       <c r="I12">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="J12">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N12">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O12">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P12">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q12">
-        <v>700.5843516574956</v>
+        <v>424.5347892901918</v>
       </c>
       <c r="R12">
-        <v>6305.259164917461</v>
+        <v>3820.813103611727</v>
       </c>
       <c r="S12">
-        <v>0.08257469870322211</v>
+        <v>0.07472309253233125</v>
       </c>
       <c r="T12">
-        <v>0.08257469870322211</v>
+        <v>0.07472309253233125</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.882553333333334</v>
+        <v>4.885583666666666</v>
       </c>
       <c r="H13">
-        <v>20.64766</v>
+        <v>14.656751</v>
       </c>
       <c r="I13">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="J13">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q13">
-        <v>374.0407002604556</v>
+        <v>265.5129640638761</v>
       </c>
       <c r="R13">
-        <v>3366.3663023441</v>
+        <v>2389.616676574885</v>
       </c>
       <c r="S13">
-        <v>0.04408648016998408</v>
+        <v>0.0467333897781388</v>
       </c>
       <c r="T13">
-        <v>0.04408648016998408</v>
+        <v>0.04673338977813879</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.882553333333334</v>
+        <v>4.885583666666666</v>
       </c>
       <c r="H14">
-        <v>20.64766</v>
+        <v>14.656751</v>
       </c>
       <c r="I14">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="J14">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N14">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q14">
-        <v>841.4216206817422</v>
+        <v>297.6591502731999</v>
       </c>
       <c r="R14">
-        <v>7572.79458613568</v>
+        <v>2678.932352458799</v>
       </c>
       <c r="S14">
-        <v>0.09917454856904857</v>
+        <v>0.05239149485522099</v>
       </c>
       <c r="T14">
-        <v>0.09917454856904857</v>
+        <v>0.05239149485522098</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.882553333333334</v>
+        <v>4.885583666666666</v>
       </c>
       <c r="H15">
-        <v>20.64766</v>
+        <v>14.656751</v>
       </c>
       <c r="I15">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="J15">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N15">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q15">
-        <v>64.04013988435555</v>
+        <v>38.15478805141721</v>
       </c>
       <c r="R15">
-        <v>576.3612589592001</v>
+        <v>343.393092462755</v>
       </c>
       <c r="S15">
-        <v>0.007548120712876159</v>
+        <v>0.00671568933816799</v>
       </c>
       <c r="T15">
-        <v>0.007548120712876159</v>
+        <v>0.00671568933816799</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.882553333333334</v>
+        <v>4.885583666666666</v>
       </c>
       <c r="H16">
-        <v>20.64766</v>
+        <v>14.656751</v>
       </c>
       <c r="I16">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="J16">
-        <v>0.2943362335651782</v>
+        <v>0.2336705631341014</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N16">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q16">
-        <v>517.1352494781735</v>
+        <v>301.7236627488466</v>
       </c>
       <c r="R16">
-        <v>4654.217245303561</v>
+        <v>2715.512964739619</v>
       </c>
       <c r="S16">
-        <v>0.06095238541004729</v>
+        <v>0.05310689663024244</v>
       </c>
       <c r="T16">
-        <v>0.06095238541004729</v>
+        <v>0.05310689663024243</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.08978</v>
+        <v>2.891468666666666</v>
       </c>
       <c r="H17">
-        <v>9.26934</v>
+        <v>8.674405999999999</v>
       </c>
       <c r="I17">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="J17">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N17">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O17">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P17">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q17">
-        <v>314.5128578343933</v>
+        <v>251.2553514368618</v>
       </c>
       <c r="R17">
-        <v>2830.61572050954</v>
+        <v>2261.298162931756</v>
       </c>
       <c r="S17">
-        <v>0.03707020348444932</v>
+        <v>0.04422388305573381</v>
       </c>
       <c r="T17">
-        <v>0.03707020348444932</v>
+        <v>0.04422388305573379</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.08978</v>
+        <v>2.891468666666666</v>
       </c>
       <c r="H18">
-        <v>9.26934</v>
+        <v>8.674405999999999</v>
       </c>
       <c r="I18">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="J18">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>163.038635</v>
       </c>
       <c r="O18">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P18">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q18">
-        <v>167.9178378834333</v>
+        <v>157.1403681862011</v>
       </c>
       <c r="R18">
-        <v>1511.2605409509</v>
+        <v>1414.26331367581</v>
       </c>
       <c r="S18">
-        <v>0.01979171364207083</v>
+        <v>0.02765854429073851</v>
       </c>
       <c r="T18">
-        <v>0.01979171364207083</v>
+        <v>0.0276585442907385</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.08978</v>
+        <v>2.891468666666666</v>
       </c>
       <c r="H19">
-        <v>9.26934</v>
+        <v>8.674405999999999</v>
       </c>
       <c r="I19">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="J19">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N19">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O19">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P19">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q19">
-        <v>377.7388374978133</v>
+        <v>176.1656672126549</v>
       </c>
       <c r="R19">
-        <v>3399.649537480319</v>
+        <v>1585.491004913894</v>
       </c>
       <c r="S19">
-        <v>0.04452236282624882</v>
+        <v>0.03100721963012799</v>
       </c>
       <c r="T19">
-        <v>0.04452236282624882</v>
+        <v>0.03100721963012798</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.08978</v>
+        <v>2.891468666666666</v>
       </c>
       <c r="H20">
-        <v>9.26934</v>
+        <v>8.674405999999999</v>
       </c>
       <c r="I20">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="J20">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N20">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O20">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P20">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q20">
-        <v>28.74949656453333</v>
+        <v>22.58141128289222</v>
       </c>
       <c r="R20">
-        <v>258.7454690808</v>
+        <v>203.2327015460299</v>
       </c>
       <c r="S20">
-        <v>0.00338857271229241</v>
+        <v>0.003974592724481738</v>
       </c>
       <c r="T20">
-        <v>0.00338857271229241</v>
+        <v>0.003974592724481738</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.08978</v>
+        <v>2.891468666666666</v>
       </c>
       <c r="H21">
-        <v>9.26934</v>
+        <v>8.674405999999999</v>
       </c>
       <c r="I21">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="J21">
-        <v>0.1321361657076419</v>
+        <v>0.1382948604962879</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N21">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O21">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P21">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q21">
-        <v>232.15717681316</v>
+        <v>178.5711956552015</v>
       </c>
       <c r="R21">
-        <v>2089.41459131844</v>
+        <v>1607.140760896814</v>
       </c>
       <c r="S21">
-        <v>0.0273633130425805</v>
+        <v>0.03143062079520589</v>
       </c>
       <c r="T21">
-        <v>0.0273633130425805</v>
+        <v>0.03143062079520589</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.259310999999999</v>
+        <v>6.741071666666667</v>
       </c>
       <c r="H22">
-        <v>15.777933</v>
+        <v>20.223215</v>
       </c>
       <c r="I22">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="J22">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N22">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O22">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P22">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q22">
-        <v>535.3523334508802</v>
+        <v>585.7681773262879</v>
       </c>
       <c r="R22">
-        <v>4818.171001057923</v>
+        <v>5271.91359593659</v>
       </c>
       <c r="S22">
-        <v>0.06309955043983798</v>
+        <v>0.1031020562296671</v>
       </c>
       <c r="T22">
-        <v>0.06309955043983798</v>
+        <v>0.1031020562296671</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.259310999999999</v>
+        <v>6.741071666666667</v>
       </c>
       <c r="H23">
-        <v>15.777933</v>
+        <v>20.223215</v>
       </c>
       <c r="I23">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="J23">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>163.038635</v>
       </c>
       <c r="O23">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P23">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q23">
-        <v>285.8236288268283</v>
+        <v>366.3517076568361</v>
       </c>
       <c r="R23">
-        <v>2572.412659441455</v>
+        <v>3297.165368911525</v>
       </c>
       <c r="S23">
-        <v>0.03368873423563917</v>
+        <v>0.06448218907192346</v>
       </c>
       <c r="T23">
-        <v>0.03368873423563917</v>
+        <v>0.06448218907192345</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.259310999999999</v>
+        <v>6.741071666666667</v>
       </c>
       <c r="H24">
-        <v>15.777933</v>
+        <v>20.223215</v>
       </c>
       <c r="I24">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="J24">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N24">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O24">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P24">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q24">
-        <v>642.9732936259092</v>
+        <v>410.7066424675039</v>
       </c>
       <c r="R24">
-        <v>5786.759642633183</v>
+        <v>3696.359782207535</v>
       </c>
       <c r="S24">
-        <v>0.07578434469705982</v>
+        <v>0.07228917681882757</v>
       </c>
       <c r="T24">
-        <v>0.07578434469705982</v>
+        <v>0.07228917681882757</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.259310999999999</v>
+        <v>6.741071666666667</v>
       </c>
       <c r="H25">
-        <v>15.777933</v>
+        <v>20.223215</v>
       </c>
       <c r="I25">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="J25">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N25">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O25">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P25">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q25">
-        <v>48.93634612377333</v>
+        <v>52.64553392789721</v>
       </c>
       <c r="R25">
-        <v>440.42711511396</v>
+        <v>473.8098053510749</v>
       </c>
       <c r="S25">
-        <v>0.005767905074166867</v>
+        <v>0.009266230241543912</v>
       </c>
       <c r="T25">
-        <v>0.005767905074166867</v>
+        <v>0.009266230241543912</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.259310999999999</v>
+        <v>6.741071666666667</v>
       </c>
       <c r="H26">
-        <v>15.777933</v>
+        <v>20.223215</v>
       </c>
       <c r="I26">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="J26">
-        <v>0.2249173694580273</v>
+        <v>0.3224159322507428</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N26">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O26">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P26">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q26">
-        <v>395.1694922429421</v>
+        <v>416.3148096298705</v>
       </c>
       <c r="R26">
-        <v>3556.525430186478</v>
+        <v>3746.833286668835</v>
       </c>
       <c r="S26">
-        <v>0.04657683501132349</v>
+        <v>0.07327627988878083</v>
       </c>
       <c r="T26">
-        <v>0.04657683501132348</v>
+        <v>0.07327627988878081</v>
       </c>
     </row>
   </sheetData>
